--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1902.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1902.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.459800263734572</v>
+        <v>1.919583201408386</v>
       </c>
       <c r="B1">
-        <v>3.596896473244398</v>
+        <v>2.753126382827759</v>
       </c>
       <c r="C1">
-        <v>3.013642179820873</v>
+        <v>3.290869474411011</v>
       </c>
       <c r="D1">
-        <v>2.366013060613233</v>
+        <v>1.080532431602478</v>
       </c>
       <c r="E1">
-        <v>1.292897125731281</v>
+        <v>0.6961435079574585</v>
       </c>
     </row>
   </sheetData>
